--- a/IBK/excel/LC_result_0702_Current.xlsx
+++ b/IBK/excel/LC_result_0702_Current.xlsx
@@ -19,15 +19,9 @@
     <t>file name</t>
   </si>
   <si>
-    <t>ISSUING BANK</t>
-  </si>
-  <si>
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>CREDIT NO</t>
-  </si>
-  <si>
     <t>000152191000872_BCO990_20190225_2019022512482806.1.jpg</t>
   </si>
   <si>
@@ -319,6 +313,14 @@
   </si>
   <si>
     <t>USD22,585.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWIFT MT SENDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDIT NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -684,8 +686,8 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,428 +703,428 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2">
         <v>175419010025</v>
@@ -1130,7 +1132,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2">
         <v>175419010025</v>
@@ -1138,7 +1140,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2">
         <v>175419010025</v>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="2">
         <v>175419010025</v>

--- a/IBK/excel/LC_result_0702_Current.xlsx
+++ b/IBK/excel/LC_result_0702_Current.xlsx
@@ -176,34 +176,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 234,919.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ENBDLC19000187</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RESONA BANK, LTD., TOKYO TOKYO BRANCH TOKYO 1-5-25 KIBA KOTOKU TOKYO JAPAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LC-831-850000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD431,126.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DIWAJPJT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD341242,00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>USD11780.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -216,18 +200,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 115,688.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ACILC1803464</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 360,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NBADAEAATFO FIRST ABU DHABI BANK PJSC (TRADE FINANCE OPERATIONS) ABU DHABI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,18 +216,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 1,900,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ANZBAU3MTRS AUSTRALIA AND NEW ZEALAND BANKING GROUP LIMITED (TRADE AND SUPPLY CH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 1,500,000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LM734382092</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD17,600.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>190125B48LA71145</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,22 +240,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD 638,200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDFC BANK LIMITED (TAMILNADU BRANCH) CHENNA ( NO.115, R.K.SALAIOPP CHENNAI KALYAN I HOSPOTAL FLOOR 4 INDIA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>004LC01190350002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD39,902.72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>S-004-2007676</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,28 +252,61 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MUFG BANK, LTD. OSAKA BRANCH OSAKA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD300,000.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MERCANTILE BANK LIMITED (ELEPHANT ROAD BRANCH) DHAKA 75 ELEPHANT ROAD OSMAN PLAZA DHAKA BANGLADESH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USD22,585.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SWIFT MT SENDER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CREDIT NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD 234 919.02</t>
+  </si>
+  <si>
+    <t>RESONA BANK  LTD.  TOKYO TOKYO BRANCH TOKYO 1-5-25 KIBA KOTOKU TOKYO JAPAN</t>
+  </si>
+  <si>
+    <t>USD431 126.30</t>
+  </si>
+  <si>
+    <t>USD341242 00</t>
+  </si>
+  <si>
+    <t>USD 115 688.5</t>
+  </si>
+  <si>
+    <t>USD 360 000</t>
+  </si>
+  <si>
+    <t>USD 1 900 000</t>
+  </si>
+  <si>
+    <t>USD 1 500 000</t>
+  </si>
+  <si>
+    <t>USD17 600.00</t>
+  </si>
+  <si>
+    <t>USD 638 200</t>
+  </si>
+  <si>
+    <t>HDFC BANK LIMITED (TAMILNADU BRANCH) CHENNA ( NO.115  R.K.SALAIOPP CHENNAI KALYAN I HOSPOTAL FLOOR 4 INDIA</t>
+  </si>
+  <si>
+    <t>USD39 902.72</t>
+  </si>
+  <si>
+    <t>MUFG BANK  LTD. OSAKA BRANCH OSAKA</t>
+  </si>
+  <si>
+    <t>USD300 000.00</t>
+  </si>
+  <si>
+    <t>USD22 585.00</t>
   </si>
 </sst>
 </file>
@@ -686,8 +671,8 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,10 +705,10 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -784,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,13 +777,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -814,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -828,13 +813,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,13 +837,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -884,13 +869,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,13 +901,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,7 +925,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -948,13 +933,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,13 +965,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +979,7 @@
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +987,7 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1010,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,13 +1003,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,13 +1027,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1056,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1057,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,10 +1065,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,13 +1076,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,7 +1090,7 @@
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,7 +1098,7 @@
         <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1121,10 +1106,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" s="2">
         <v>175419010025</v>
